--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Ifnar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8715449999999999</v>
+        <v>0.301559</v>
       </c>
       <c r="H2">
-        <v>2.614635</v>
+        <v>0.904677</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.577204</v>
+        <v>12.944643</v>
       </c>
       <c r="N2">
-        <v>73.731612</v>
+        <v>38.833929</v>
       </c>
       <c r="O2">
-        <v>0.5324151489760768</v>
+        <v>0.3748900893017936</v>
       </c>
       <c r="P2">
-        <v>0.5324151489760768</v>
+        <v>0.3748900893017936</v>
       </c>
       <c r="Q2">
-        <v>21.42013926018</v>
+        <v>3.903573598436999</v>
       </c>
       <c r="R2">
-        <v>192.78125334162</v>
+        <v>35.13216238593299</v>
       </c>
       <c r="S2">
-        <v>0.5324151489760768</v>
+        <v>0.09636952941918155</v>
       </c>
       <c r="T2">
-        <v>0.5324151489760768</v>
+        <v>0.09636952941918157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8715449999999999</v>
+        <v>0.301559</v>
       </c>
       <c r="H3">
-        <v>2.614635</v>
+        <v>0.904677</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>45.100356</v>
       </c>
       <c r="O3">
-        <v>0.3256691683156758</v>
+        <v>0.4353841324781401</v>
       </c>
       <c r="P3">
-        <v>0.3256691683156758</v>
+        <v>0.4353841324781401</v>
       </c>
       <c r="Q3">
-        <v>13.10232992334</v>
+        <v>4.533472751668</v>
       </c>
       <c r="R3">
-        <v>117.92096931006</v>
+        <v>40.801254765012</v>
       </c>
       <c r="S3">
-        <v>0.3256691683156758</v>
+        <v>0.111920173834524</v>
       </c>
       <c r="T3">
-        <v>0.3256691683156758</v>
+        <v>0.111920173834524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8715449999999999</v>
+        <v>0.301559</v>
       </c>
       <c r="H4">
-        <v>2.614635</v>
+        <v>0.904677</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2570607550566701</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,208 @@
         <v>19.65322</v>
       </c>
       <c r="O4">
-        <v>0.1419156827082475</v>
+        <v>0.1897257782200662</v>
       </c>
       <c r="P4">
-        <v>0.1419156827082475</v>
+        <v>0.1897257782200662</v>
       </c>
       <c r="Q4">
-        <v>5.7095552083</v>
+        <v>1.975535123326667</v>
       </c>
       <c r="R4">
-        <v>51.3859968747</v>
+        <v>17.77981610994</v>
       </c>
       <c r="S4">
-        <v>0.1419156827082475</v>
+        <v>0.04877105180296455</v>
       </c>
       <c r="T4">
-        <v>0.1419156827082475</v>
+        <v>0.04877105180296456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8715450000000001</v>
+      </c>
+      <c r="H5">
+        <v>2.614635</v>
+      </c>
+      <c r="I5">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="J5">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>12.944643</v>
+      </c>
+      <c r="N5">
+        <v>38.833929</v>
+      </c>
+      <c r="O5">
+        <v>0.3748900893017936</v>
+      </c>
+      <c r="P5">
+        <v>0.3748900893017936</v>
+      </c>
+      <c r="Q5">
+        <v>11.281838883435</v>
+      </c>
+      <c r="R5">
+        <v>101.536549950915</v>
+      </c>
+      <c r="S5">
+        <v>0.278520559882612</v>
+      </c>
+      <c r="T5">
+        <v>0.278520559882612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8715450000000001</v>
+      </c>
+      <c r="H6">
+        <v>2.614635</v>
+      </c>
+      <c r="I6">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="J6">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.033452</v>
+      </c>
+      <c r="N6">
+        <v>45.100356</v>
+      </c>
+      <c r="O6">
+        <v>0.4353841324781401</v>
+      </c>
+      <c r="P6">
+        <v>0.4353841324781401</v>
+      </c>
+      <c r="Q6">
+        <v>13.10232992334</v>
+      </c>
+      <c r="R6">
+        <v>117.92096931006</v>
+      </c>
+      <c r="S6">
+        <v>0.3234639586436161</v>
+      </c>
+      <c r="T6">
+        <v>0.3234639586436161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8715450000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.614635</v>
+      </c>
+      <c r="I7">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="J7">
+        <v>0.7429392449433299</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.551073333333334</v>
+      </c>
+      <c r="N7">
+        <v>19.65322</v>
+      </c>
+      <c r="O7">
+        <v>0.1897257782200662</v>
+      </c>
+      <c r="P7">
+        <v>0.1897257782200662</v>
+      </c>
+      <c r="Q7">
+        <v>5.709555208300001</v>
+      </c>
+      <c r="R7">
+        <v>51.38599687470001</v>
+      </c>
+      <c r="S7">
+        <v>0.1409547264171016</v>
+      </c>
+      <c r="T7">
+        <v>0.1409547264171016</v>
       </c>
     </row>
   </sheetData>
